--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ptprz1-Ncam1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ptprz1-Ncam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,10 +91,7 @@
     <t>Ncam1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.4690541859018</v>
+        <v>0.0191995</v>
       </c>
       <c r="H2">
-        <v>5.4690541859018</v>
+        <v>0.038399</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.002780311579676609</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.002767389187860387</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="N2">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="O2">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="P2">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="Q2">
-        <v>2.249859727136782</v>
+        <v>0.012842353555</v>
       </c>
       <c r="R2">
-        <v>2.249859727136782</v>
+        <v>0.05136941422</v>
       </c>
       <c r="S2">
-        <v>0.008397448250399588</v>
+        <v>3.280795409528293E-05</v>
       </c>
       <c r="T2">
-        <v>0.008397448250399588</v>
+        <v>3.184689412851735E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.4690541859018</v>
+        <v>0.0191995</v>
       </c>
       <c r="H3">
-        <v>5.4690541859018</v>
+        <v>0.038399</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.002780311579676609</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.002767389187860387</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.04670685051394</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="N3">
-        <v>2.04670685051394</v>
+        <v>7.049111</v>
       </c>
       <c r="O3">
-        <v>0.04177916575864148</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="P3">
-        <v>0.04177916575864148</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="Q3">
-        <v>11.19355066811715</v>
+        <v>0.04511313554816667</v>
       </c>
       <c r="R3">
-        <v>11.19355066811715</v>
+        <v>0.270678813289</v>
       </c>
       <c r="S3">
-        <v>0.04177916575864148</v>
+        <v>0.0001152490993040978</v>
       </c>
       <c r="T3">
-        <v>0.04177916575864148</v>
+        <v>0.0001678095738590554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.4690541859018</v>
+        <v>0.0191995</v>
       </c>
       <c r="H4">
-        <v>5.4690541859018</v>
+        <v>0.038399</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.002780311579676609</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.002767389187860387</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.122104105361669</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="N4">
-        <v>0.122104105361669</v>
+        <v>0.06322</v>
       </c>
       <c r="O4">
-        <v>0.002492495521004779</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="P4">
-        <v>0.002492495521004779</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="Q4">
-        <v>0.6677939685440303</v>
+        <v>0.0004045974633333334</v>
       </c>
       <c r="R4">
-        <v>0.6677939685440303</v>
+        <v>0.00242758478</v>
       </c>
       <c r="S4">
-        <v>0.002492495521004779</v>
+        <v>1.033612331825256E-06</v>
       </c>
       <c r="T4">
-        <v>0.002492495521004779</v>
+        <v>1.505001305748977E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>5.4690541859018</v>
+        <v>0.0191995</v>
       </c>
       <c r="H5">
-        <v>5.4690541859018</v>
+        <v>0.038399</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.002780311579676609</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.002767389187860387</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.295842232935032</v>
+        <v>0.128441</v>
       </c>
       <c r="N5">
-        <v>0.295842232935032</v>
+        <v>0.385323</v>
       </c>
       <c r="O5">
-        <v>0.006038989748383188</v>
+        <v>0.002265868255599604</v>
       </c>
       <c r="P5">
-        <v>0.006038989748383188</v>
+        <v>0.00331464542899184</v>
       </c>
       <c r="Q5">
-        <v>1.617977202399872</v>
+        <v>0.0024660029795</v>
       </c>
       <c r="R5">
-        <v>1.617977202399872</v>
+        <v>0.014796017877</v>
       </c>
       <c r="S5">
-        <v>0.006038989748383188</v>
+        <v>6.299819749065219E-06</v>
       </c>
       <c r="T5">
-        <v>0.006038989748383188</v>
+        <v>9.172913921782873E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,867 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.0191995</v>
+      </c>
+      <c r="H6">
+        <v>0.038399</v>
+      </c>
+      <c r="I6">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="J6">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.137562</v>
+      </c>
+      <c r="O6">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="P6">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="Q6">
+        <v>0.007280207206333334</v>
+      </c>
+      <c r="R6">
+        <v>0.043681243238</v>
+      </c>
+      <c r="S6">
+        <v>1.859851489110727E-05</v>
+      </c>
+      <c r="T6">
+        <v>2.708054880370798E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.0191995</v>
+      </c>
+      <c r="H7">
+        <v>0.038399</v>
+      </c>
+      <c r="I7">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="J7">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>53.1378185</v>
+      </c>
+      <c r="N7">
+        <v>106.275637</v>
+      </c>
+      <c r="O7">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="P7">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="Q7">
+        <v>1.02021954629075</v>
+      </c>
+      <c r="R7">
+        <v>4.080878185163001</v>
+      </c>
+      <c r="S7">
+        <v>0.002606322579305231</v>
+      </c>
+      <c r="T7">
+        <v>0.002529974255841575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.193473</v>
+      </c>
+      <c r="I8">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="J8">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.66889</v>
+      </c>
+      <c r="N8">
+        <v>1.33778</v>
+      </c>
+      <c r="O8">
+        <v>0.01180009979280774</v>
+      </c>
+      <c r="P8">
+        <v>0.01150792026947964</v>
+      </c>
+      <c r="Q8">
+        <v>0.04313738499000001</v>
+      </c>
+      <c r="R8">
+        <v>0.25882430994</v>
+      </c>
+      <c r="S8">
+        <v>0.0001102017118966062</v>
+      </c>
+      <c r="T8">
+        <v>0.0001604602762500752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.193473</v>
+      </c>
+      <c r="I9">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="J9">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.349703666666667</v>
+      </c>
+      <c r="N9">
+        <v>7.049111</v>
+      </c>
+      <c r="O9">
+        <v>0.04145186465665943</v>
+      </c>
+      <c r="P9">
+        <v>0.0606382270318826</v>
+      </c>
+      <c r="Q9">
+        <v>0.151534739167</v>
+      </c>
+      <c r="R9">
+        <v>1.363812652503</v>
+      </c>
+      <c r="S9">
+        <v>0.0003871210012354786</v>
+      </c>
+      <c r="T9">
+        <v>0.0008455069580778932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.193473</v>
+      </c>
+      <c r="I10">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="J10">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.02107333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.06322</v>
+      </c>
+      <c r="O10">
+        <v>0.000371761330413723</v>
+      </c>
+      <c r="P10">
+        <v>0.0005438343520134124</v>
+      </c>
+      <c r="Q10">
+        <v>0.00135904034</v>
+      </c>
+      <c r="R10">
+        <v>0.01223136306</v>
+      </c>
+      <c r="S10">
+        <v>3.471897335438037E-06</v>
+      </c>
+      <c r="T10">
+        <v>7.582934910470895E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.193473</v>
+      </c>
+      <c r="I11">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="J11">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.128441</v>
+      </c>
+      <c r="N11">
+        <v>0.385323</v>
+      </c>
+      <c r="O11">
+        <v>0.002265868255599604</v>
+      </c>
+      <c r="P11">
+        <v>0.00331464542899184</v>
+      </c>
+      <c r="Q11">
+        <v>0.008283288531000001</v>
+      </c>
+      <c r="R11">
+        <v>0.074549596779</v>
+      </c>
+      <c r="S11">
+        <v>2.116105499814917E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.621764043826916E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.193473</v>
+      </c>
+      <c r="I12">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="J12">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.137562</v>
+      </c>
+      <c r="O12">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="P12">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="Q12">
+        <v>0.024454170314</v>
+      </c>
+      <c r="R12">
+        <v>0.220087532826</v>
+      </c>
+      <c r="S12">
+        <v>6.247229479113514E-05</v>
+      </c>
+      <c r="T12">
+        <v>0.0001364450902028645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.193473</v>
+      </c>
+      <c r="I13">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="J13">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>53.1378185</v>
+      </c>
+      <c r="N13">
+        <v>106.275637</v>
+      </c>
+      <c r="O13">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="P13">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="Q13">
+        <v>3.4269110528835</v>
+      </c>
+      <c r="R13">
+        <v>20.561466317301</v>
+      </c>
+      <c r="S13">
+        <v>0.008754621186071182</v>
+      </c>
+      <c r="T13">
+        <v>0.01274725147010175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5.4690541859018</v>
-      </c>
-      <c r="H6">
-        <v>5.4690541859018</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>46.1126627723926</v>
-      </c>
-      <c r="N6">
-        <v>46.1126627723926</v>
-      </c>
-      <c r="O6">
-        <v>0.941291900721571</v>
-      </c>
-      <c r="P6">
-        <v>0.941291900721571</v>
-      </c>
-      <c r="Q6">
-        <v>252.1926513584318</v>
-      </c>
-      <c r="R6">
-        <v>252.1926513584318</v>
-      </c>
-      <c r="S6">
-        <v>0.941291900721571</v>
-      </c>
-      <c r="T6">
-        <v>0.941291900721571</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="H14">
+        <v>13.643661</v>
+      </c>
+      <c r="I14">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="J14">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.66889</v>
+      </c>
+      <c r="N14">
+        <v>1.33778</v>
+      </c>
+      <c r="O14">
+        <v>0.01180009979280774</v>
+      </c>
+      <c r="P14">
+        <v>0.01150792026947964</v>
+      </c>
+      <c r="Q14">
+        <v>4.563054203145001</v>
+      </c>
+      <c r="R14">
+        <v>18.25221681258</v>
+      </c>
+      <c r="S14">
+        <v>0.01165709012681585</v>
+      </c>
+      <c r="T14">
+        <v>0.01131561309910105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="H15">
+        <v>13.643661</v>
+      </c>
+      <c r="I15">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="J15">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.349703666666667</v>
+      </c>
+      <c r="N15">
+        <v>7.049111</v>
+      </c>
+      <c r="O15">
+        <v>0.04145186465665943</v>
+      </c>
+      <c r="P15">
+        <v>0.0606382270318826</v>
+      </c>
+      <c r="Q15">
+        <v>16.0292801392285</v>
+      </c>
+      <c r="R15">
+        <v>96.17568083537101</v>
+      </c>
+      <c r="S15">
+        <v>0.04094949455611985</v>
+      </c>
+      <c r="T15">
+        <v>0.05962491049994566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="H16">
+        <v>13.643661</v>
+      </c>
+      <c r="I16">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="J16">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.02107333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.06322</v>
+      </c>
+      <c r="O16">
+        <v>0.000371761330413723</v>
+      </c>
+      <c r="P16">
+        <v>0.0005438343520134124</v>
+      </c>
+      <c r="Q16">
+        <v>0.14375870807</v>
+      </c>
+      <c r="R16">
+        <v>0.8625522484200001</v>
+      </c>
+      <c r="S16">
+        <v>0.0003672558207464597</v>
+      </c>
+      <c r="T16">
+        <v>0.0005347464157971926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="H17">
+        <v>13.643661</v>
+      </c>
+      <c r="I17">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="J17">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.128441</v>
+      </c>
+      <c r="N17">
+        <v>0.385323</v>
+      </c>
+      <c r="O17">
+        <v>0.002265868255599604</v>
+      </c>
+      <c r="P17">
+        <v>0.00331464542899184</v>
+      </c>
+      <c r="Q17">
+        <v>0.8762027312505001</v>
+      </c>
+      <c r="R17">
+        <v>5.257216387503</v>
+      </c>
+      <c r="S17">
+        <v>0.00223840738085239</v>
+      </c>
+      <c r="T17">
+        <v>0.003259254874631788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="H18">
+        <v>13.643661</v>
+      </c>
+      <c r="I18">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="J18">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.137562</v>
+      </c>
+      <c r="O18">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="P18">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="Q18">
+        <v>2.586751715747</v>
+      </c>
+      <c r="R18">
+        <v>15.520510294482</v>
+      </c>
+      <c r="S18">
+        <v>0.006608292723188614</v>
+      </c>
+      <c r="T18">
+        <v>0.009622069001061153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="H19">
+        <v>13.643661</v>
+      </c>
+      <c r="I19">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="J19">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>53.1378185</v>
+      </c>
+      <c r="N19">
+        <v>106.275637</v>
+      </c>
+      <c r="O19">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="P19">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="Q19">
+        <v>362.4971909467643</v>
+      </c>
+      <c r="R19">
+        <v>1449.988763787057</v>
+      </c>
+      <c r="S19">
+        <v>0.9260600986662723</v>
+      </c>
+      <c r="T19">
+        <v>0.8989325525516215</v>
       </c>
     </row>
   </sheetData>
